--- a/MCU_TI.xlsx
+++ b/MCU_TI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -179,7 +179,25 @@
     <t>375 MHZ</t>
   </si>
   <si>
-    <t>CC1101IRHBRG4Q1</t>
+    <t>CC2540F256RHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC RF TxRx + MCU Bluetooth Bluetooth </t>
+  </si>
+  <si>
+    <t>VQFN-40</t>
+  </si>
+  <si>
+    <t>CC2540</t>
+  </si>
+  <si>
+    <t>256 KB</t>
+  </si>
+  <si>
+    <t>8 KB</t>
+  </si>
+  <si>
+    <t>32 MHZ</t>
   </si>
 </sst>
 </file>
@@ -890,7 +908,7 @@
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1139,17 +1157,42 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="H7" s="14"/>
+      <c r="A7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8051</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J7" s="18">
         <v>3</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="14"/>
